--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>776</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3">

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,73 +478,73 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HTH</t>
+          <t>PITT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>296001</v>
+        <v>967001</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>GRD</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Sheet-2</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>TDFL STRT</t>
+          <t>T-RAD-B</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1-A-R</t>
+          <t>4-A-R</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>776</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PITT</t>
+          <t>HTH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>967001</v>
+        <v>296001</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>GRD</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sheet-2</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>211/1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>T-RAD-B</t>
+          <t>RND Spigot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4-A-R</t>
+          <t>4-B-R</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -568,12 +568,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>211/1</t>
+          <t>211</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>RND Spigot</t>
+          <t>TDFL STRT</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -606,58 +606,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>223</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>TDFL STRT</t>
+          <t>T-Taper</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4-B-R</t>
+          <t>4-C-R</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HTH</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>296001</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>GRD</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Sheet-2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>T-Taper</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>4-C-R</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
         <v>108</v>
       </c>
     </row>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,486 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDFL STRT</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4-A-R</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-RAD-B</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4-A-R</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4-A-R</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDFL STRT</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4-A-R</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Shoe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4-A-R</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDFL STRT</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4-A-R</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-RAD-B</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4-A-R</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4-A-R</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDFL STRT</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4-A-R</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-RAD-B</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4-A-R</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 52/1</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 250 Dia 100 Deep</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4-A-R</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDFL-LPE STRT</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4-A-R</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -489,11 +489,7 @@
           <t xml:space="preserve"> L-9</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 62</t>
@@ -509,10 +505,8 @@
           <t>4-A-R</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
+      <c r="H2" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -529,11 +523,7 @@
           <t xml:space="preserve"> L-9</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 61</t>
@@ -549,10 +539,8 @@
           <t>4-A-R</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
+      <c r="H3" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -569,11 +557,7 @@
           <t xml:space="preserve"> L-9</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 60</t>
@@ -589,10 +573,8 @@
           <t>4-A-R</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
+      <c r="H4" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -609,11 +591,7 @@
           <t xml:space="preserve"> L-9</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve"> 59</t>
@@ -629,10 +607,8 @@
           <t>4-A-R</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
+      <c r="H5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -649,11 +625,7 @@
           <t xml:space="preserve"> L-9</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 58</t>
@@ -669,10 +641,8 @@
           <t>4-A-R</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
+      <c r="H6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -689,11 +659,7 @@
           <t xml:space="preserve"> L-9</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t xml:space="preserve"> 57</t>
@@ -709,10 +675,8 @@
           <t>4-A-R</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
+      <c r="H7" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -729,11 +693,7 @@
           <t xml:space="preserve"> L-9</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve"> 56</t>
@@ -749,10 +709,8 @@
           <t>4-A-R</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
+      <c r="H8" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -769,11 +727,7 @@
           <t xml:space="preserve"> L-9</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve"> 55</t>
@@ -789,10 +743,8 @@
           <t>4-A-R</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
+      <c r="H9" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -809,11 +761,7 @@
           <t xml:space="preserve"> L-9</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 54</t>
@@ -829,10 +777,8 @@
           <t>4-A-R</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
+      <c r="H10" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -849,11 +795,7 @@
           <t xml:space="preserve"> L-9</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve"> 53</t>
@@ -869,10 +811,8 @@
           <t>4-A-R</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
+      <c r="H11" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -889,11 +829,7 @@
           <t xml:space="preserve"> L-9</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve"> 52/1</t>
@@ -909,10 +845,8 @@
           <t>4-A-R</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
+      <c r="H12" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -929,11 +863,7 @@
           <t xml:space="preserve"> L-9</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t xml:space="preserve"> 52</t>
@@ -949,10 +879,8 @@
           <t>4-A-R</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
+      <c r="H13" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,11 +502,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4-A-R</t>
+          <t>2-A-B</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -536,11 +536,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4-A-R</t>
+          <t>2-A-B</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -570,11 +570,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4-A-R</t>
+          <t>2-A-B</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -604,11 +604,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4-A-R</t>
+          <t>2-A-B</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -638,11 +638,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4-A-R</t>
+          <t>2-A-B</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -672,11 +672,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4-A-R</t>
+          <t>2-A-B</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -706,11 +706,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4-A-R</t>
+          <t>2-A-B</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -740,11 +740,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4-A-R</t>
+          <t>2-A-B</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -774,11 +774,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4-A-R</t>
+          <t>2-A-B</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -808,11 +808,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4-A-R</t>
+          <t>2-A-B</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -842,11 +842,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4-A-R</t>
+          <t>2-A-B</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
@@ -876,10 +876,418 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>2-A-B</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDFL STRT</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>4-A-R</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-RAD-B</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4-A-R</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>4-A-R</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDFL STRT</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>4-A-R</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Shoe</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>4-A-R</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDFL STRT</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>4-A-R</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-RAD-B</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>4-A-R</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>4-A-R</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDFL STRT</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>4-A-R</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-RAD-B</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>4-A-R</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 52/1</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 250 Dia 100 Deep</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>4-A-R</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDFL-LPE STRT</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>4-A-R</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>25</v>
       </c>
     </row>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,222 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>60</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>61</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-RAD-B</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>62</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDFL STRT</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2-A-B</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>62</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDFL STRT</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2-A-B</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L-9</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>61</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-RAD-B</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2-A-B</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,11 +489,7 @@
           <t xml:space="preserve"> L-9</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
         <v>60</v>
       </c>
@@ -507,10 +503,8 @@
           <t>1-A-R</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="H2" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -527,11 +521,7 @@
           <t xml:space="preserve"> L-9</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>61</v>
       </c>
@@ -545,10 +535,8 @@
           <t>1-A-R</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="H3" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -565,11 +553,7 @@
           <t xml:space="preserve"> L-9</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>62</v>
       </c>
@@ -583,112 +567,8 @@
           <t>1-A-R</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>WD</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> L-9</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>60</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2-A-B</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>WD</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> L-9</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>62</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TDFL STRT</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2-A-B</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>WD</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> L-9</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>61</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-RAD-B</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2-A-B</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
+      <c r="H4" t="n">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,102 +475,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>WD</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> L-9</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>60</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1-A-R</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>WD</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> L-9</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>61</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-RAD-B</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1-A-R</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>WD</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> L-9</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>62</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TDFL STRT</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1-A-R</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>77</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,70 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,70 +475,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1-A-B</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1-A-B</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>228</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,582 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,11 +504,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1-A-B</t>
+          <t>1-A-G</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -540,11 +540,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1-A-B</t>
+          <t>1-A-G</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -576,11 +576,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1-A-B</t>
+          <t>1-A-G</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -612,11 +612,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1-A-B</t>
+          <t>1-A-G</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -648,11 +648,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1-A-B</t>
+          <t>1-A-G</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -684,11 +684,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1-A-B</t>
+          <t>1-A-G</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -720,11 +720,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1-A-B</t>
+          <t>1-A-G</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -756,11 +756,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1-A-B</t>
+          <t>1-A-G</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -792,11 +792,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1-A-B</t>
+          <t>1-A-G</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -828,11 +828,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1-A-B</t>
+          <t>1-A-G</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -864,11 +864,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1-A-B</t>
+          <t>1-A-G</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -900,11 +900,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1-A-B</t>
+          <t>1-A-G</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
@@ -936,11 +936,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1-A-B</t>
+          <t>1-A-G</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -972,11 +972,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1-A-B</t>
+          <t>1-A-G</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1-A-B</t>
+          <t>1-A-G</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -1035,20 +1035,524 @@
         </is>
       </c>
       <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1-A-G</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>2</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1-A-B</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>22</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,618 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1-A-G</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1-A-G</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1-A-G</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1-A-G</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1-A-G</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1-A-G</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1-A-G</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -504,11 +504,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1-A-G</t>
+          <t>1-A-B</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -540,11 +540,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1-A-G</t>
+          <t>1-A-B</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -576,11 +576,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1-A-G</t>
+          <t>1-A-B</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -612,11 +612,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1-A-G</t>
+          <t>1-A-B</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -648,11 +648,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1-A-G</t>
+          <t>1-A-B</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -684,407 +684,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1-A-G</t>
+          <t>1-A-B</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1-A-G</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1-A-R</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1-A-R</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1-A-R</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1-A-R</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1-A-R</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1-A-R</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1-A-R</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1-A-R</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1-A-R</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1-A-R</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,6 +691,150 @@
         <v>88</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2-A-B</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2-A-B</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2-A-B</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2-A-B</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,366 +475,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1-A-B</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1-A-B</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1-A-B</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1-A-B</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1-A-B</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1-A-B</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2-A-B</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2-A-B</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2-A-B</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2-A-B</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>56</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,222 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>114001</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-19352</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LVL-3 West P/R</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDFL STRT</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5-A-B</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>114001</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-19352</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LVL-3 West P/R</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDFL STRT</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5-A-B</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>114001</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-19352</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LVL-3 West P/R</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDFL STRT</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5-A-B</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>114001</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-19352</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LVL-3 West P/R</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDFL STRT</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5-A-B</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>114001</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-19352</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LVL-3 West P/R</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-SQ-R-OFFSET</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5-A-B</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>114001</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-19352</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LVL-3 West P/R</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-SQ-R-ET-ET</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5-A-B</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,222 +475,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>114001</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-19352</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LVL-3 West P/R</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>6</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TDFL STRT</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5-A-B</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>114001</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-19352</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LVL-3 West P/R</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TDFL STRT</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>5-A-B</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>114001</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-19352</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LVL-3 West P/R</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TDFL STRT</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>5-A-B</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>114001</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-19352</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LVL-3 West P/R</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TDFL STRT</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>5-A-B</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>114001</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-19352</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LVL-3 West P/R</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-SQ-R-OFFSET</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>5-A-B</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>114001</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-19352</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LVL-3 West P/R</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-SQ-R-ET-ET</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>5-A-B</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>88</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,294 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>114001</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-19352</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LVL-3 West P/R</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-SQ-R-ET-ET</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>114001</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-19352</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LVL-3 West P/R</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDFL STRT</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>114001</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-19352</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LVL-3 West P/R</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDFL STRT</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>114001</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-19352</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LVL-3 West P/R</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-SQ-R-ET-ET</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>114001</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-19352</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LVL-3 West P/R</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-SQ-R-OFFSET</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>114001</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-19352</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LVL-3 West P/R</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDFL STRT</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,272 +495,20 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> T-SQ-R-ET-ET</t>
+          <t xml:space="preserve"> T-SQ-R-OFFSET</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1-A-B</t>
+          <t>1-A-R</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>114001</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-19352</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LVL-3 West P/R</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TDFL STRT</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1-A-B</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>114001</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-19352</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LVL-3 West P/R</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TDFL STRT</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1-A-B</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1-A-B</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>114001</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-19352</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LVL-3 West P/R</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-SQ-R-ET-ET</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1-A-B</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>114001</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-19352</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LVL-3 West P/R</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>4</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-SQ-R-OFFSET</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1-A-R</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>114001</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-19352</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LVL-3 West P/R</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TDFL STRT</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1-A-R</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1-A-R</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,42 +475,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>114001</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-19352</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LVL-3 West P/R</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-SQ-R-OFFSET</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1-A-R</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>88</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,690 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TET</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12001</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Straight</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>114511</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Radius Bend</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TET</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12001</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Straight</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TET</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>12001</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Straight</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>114511</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Shoe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>114511</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Elbow</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1-A-B</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>114511</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Radius Bend</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TET</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>12001</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Straight</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TET</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12001</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Straight</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TET</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>12001</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Straight</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>114511</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Shoe</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>114511</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Elbow</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>114511</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Radius Bend</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1-B-B</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TET</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>12001</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Straight</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1-B-B</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TET</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>12001</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Straight</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1-B-B</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TET</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>12001</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Straight</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1-B-B</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TET</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>12001</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Straight</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1-B-B</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>114511</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Shoe</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1-B-B</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>114511</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Elbow</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1-B-B</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,222 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>114511</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Radius Bend</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TET</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>12001</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Straight</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TET</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12001</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Straight</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TET</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>12001</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Straight</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>114511</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Shoe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>114511</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Elbow</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1-A-R</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
